--- a/[6] 数学/[6-1] 回归/回归.xlsx
+++ b/[6] 数学/[6-1] 回归/回归.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\git\MyKnowledge\[6] 数学\[6-1] 回归\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="17871" windowHeight="9334" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一元回归" sheetId="1" r:id="rId1"/>
     <sheet name="多元回归" sheetId="2" r:id="rId2"/>
-    <sheet name="分布滞后模型" sheetId="3" r:id="rId3"/>
-    <sheet name="虚拟变量回归" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="虚拟变量回归" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
   <si>
     <t>假设：</t>
   </si>
@@ -158,6 +162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>[0,</t>
@@ -167,6 +172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>∞</t>
@@ -176,6 +182,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>]
@@ -528,9 +535,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>模型</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -554,7 +558,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>αβ</t>
     </r>
@@ -563,6 +567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>都变化</t>
@@ -626,14 +631,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,366 +644,46 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1092,255 +771,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,16 +812,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1395,9 +826,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,12 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1437,83 +859,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>42545</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1635760</xdr:colOff>
+          <xdr:colOff>1638300</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>686435</xdr:rowOff>
+          <xdr:rowOff>685800</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -1524,14 +922,32 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2813685" y="1835785"/>
-              <a:ext cx="1544320" cy="643890"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1544,17 +960,17 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>22225</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>521335</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>994410</xdr:colOff>
+          <xdr:colOff>990600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>824865</xdr:rowOff>
+          <xdr:rowOff>828675</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1565,14 +981,32 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4577080" y="2314575"/>
-              <a:ext cx="972185" cy="303530"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1587,15 +1021,15 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>85725</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>48895</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>936625</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>277495</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1606,14 +1040,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4640580" y="48895"/>
-              <a:ext cx="850900" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1632,11 +1077,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>15875</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Object 5" hidden="1">
               <a:extLst>
@@ -1647,14 +1092,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4554855" y="330200"/>
-              <a:ext cx="2562225" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1669,15 +1125,15 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>939800</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>273050</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Object 6" hidden="1">
               <a:extLst>
@@ -1688,14 +1144,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4592955" y="615950"/>
-              <a:ext cx="901700" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1710,15 +1177,15 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>15875</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>316865</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Object 7" hidden="1">
               <a:extLst>
@@ -1729,14 +1196,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4564380" y="917575"/>
-              <a:ext cx="2219325" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1751,15 +1229,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>622300</xdr:rowOff>
+          <xdr:rowOff>619125</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Object 8" hidden="1">
               <a:extLst>
@@ -1770,14 +1248,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2731770" y="2872740"/>
-              <a:ext cx="1823085" cy="419100"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1792,15 +1281,15 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22225</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1247775</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>250825</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1811,14 +1300,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4583430" y="2691765"/>
-              <a:ext cx="1219200" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1833,15 +1333,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>60325</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1745615</xdr:colOff>
+          <xdr:colOff>1743075</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>1380490</xdr:rowOff>
+          <xdr:rowOff>1381125</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Object 10" hidden="1">
               <a:extLst>
@@ -1852,14 +1352,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2779395" y="3453765"/>
-              <a:ext cx="1688465" cy="1320165"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1874,15 +1385,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>60325</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1745615</xdr:colOff>
+          <xdr:colOff>1743075</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>1304925</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1893,14 +1404,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2779395" y="4926965"/>
-              <a:ext cx="1688465" cy="1244600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1915,15 +1437,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>149225</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>815975</xdr:rowOff>
+          <xdr:rowOff>819150</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Object 12" hidden="1">
               <a:extLst>
@@ -1934,14 +1456,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2722245" y="7568565"/>
-              <a:ext cx="1832610" cy="845820"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1956,15 +1489,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>965200</xdr:colOff>
+          <xdr:colOff>962025</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>647700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1975,14 +1508,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3027045" y="8754110"/>
-              <a:ext cx="660400" cy="393700"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2005,7 +1549,7 @@
           <xdr:row>0</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -2016,14 +1560,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7101205" y="0"/>
-              <a:ext cx="609600" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2042,11 +1597,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>234950</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Object 15" hidden="1">
               <a:extLst>
@@ -2057,14 +1612,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7101205" y="285750"/>
-              <a:ext cx="1294130" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2079,15 +1645,15 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>279400</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Object 16" hidden="1">
               <a:extLst>
@@ -2098,14 +1664,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7101205" y="571500"/>
-              <a:ext cx="913765" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2120,15 +1697,15 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>301625</xdr:rowOff>
+          <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>212725</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Object 17" hidden="1">
               <a:extLst>
@@ -2139,14 +1716,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7101205" y="885825"/>
-              <a:ext cx="1053465" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2161,15 +1749,15 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>250825</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>177165</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>225425</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Object 18" hidden="1">
               <a:extLst>
@@ -2180,14 +1768,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7101205" y="1152525"/>
-              <a:ext cx="1445895" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2202,15 +1801,15 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>250825</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>53975</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Object 19" hidden="1">
               <a:extLst>
@@ -2221,14 +1820,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7101205" y="1419225"/>
-              <a:ext cx="799465" cy="248920"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2240,7 +1850,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2248,15 +1858,15 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>19685</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>959485</xdr:rowOff>
+          <xdr:rowOff>962025</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2049" name="Object 1" hidden="1">
               <a:extLst>
@@ -2267,14 +1877,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1329055" y="19685"/>
-              <a:ext cx="2660015" cy="939800"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2295,9 +1916,9 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>809625</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>269875</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2050" name="Object 2" hidden="1">
               <a:extLst>
@@ -2308,14 +1929,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1281430" y="1133475"/>
-              <a:ext cx="762000" cy="203200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2334,11 +1966,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>768350</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>527050</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2051" name="Object 3" hidden="1">
               <a:extLst>
@@ -2349,14 +1981,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1290955" y="1390650"/>
-              <a:ext cx="711200" cy="508000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2371,15 +2014,15 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>60325</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>809625</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>974725</xdr:rowOff>
+          <xdr:rowOff>971550</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2052" name="Object 4" hidden="1">
               <a:extLst>
@@ -2390,14 +2033,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3246120" y="2955925"/>
-              <a:ext cx="762000" cy="914400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2412,15 +2066,15 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>53975</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>993775</xdr:rowOff>
+          <xdr:rowOff>990600</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2053" name="Object 5" hidden="1">
               <a:extLst>
@@ -2431,14 +2085,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3265170" y="3978275"/>
-              <a:ext cx="1739900" cy="939800"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2459,9 +2124,9 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1581150</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>346075</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2054" name="Object 6" hidden="1">
               <a:extLst>
@@ -2472,14 +2137,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3284220" y="5045075"/>
-              <a:ext cx="2438400" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2494,15 +2170,15 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>879475</xdr:colOff>
+          <xdr:colOff>876300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>368300</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2055" name="Object 7" hidden="1">
               <a:extLst>
@@ -2513,14 +2189,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3227070" y="5511800"/>
-              <a:ext cx="850900" cy="203200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2535,15 +2222,15 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>320675</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2056" name="Object 8" hidden="1">
               <a:extLst>
@@ -2554,14 +2241,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6407785" y="5416550"/>
-              <a:ext cx="926465" cy="431800"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2576,15 +2274,15 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>869950</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2057" name="Object 9" hidden="1">
               <a:extLst>
@@ -2595,14 +2293,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3217545" y="5848350"/>
-              <a:ext cx="850900" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2617,15 +2326,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>120650</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>514350</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2058" name="Object 10" hidden="1">
               <a:extLst>
@@ -2636,14 +2345,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4217670" y="7644130"/>
-              <a:ext cx="660400" cy="393700"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2658,15 +2378,15 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>15875</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>225425</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2059" name="Object 11" hidden="1">
               <a:extLst>
@@ -2677,14 +2397,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3246120" y="6482715"/>
-              <a:ext cx="3361690" cy="744220"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2699,15 +2430,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1406525</xdr:colOff>
+          <xdr:colOff>1409700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2060" name="Object 12" hidden="1">
               <a:extLst>
@@ -2718,14 +2449,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4189095" y="8368030"/>
-              <a:ext cx="1358900" cy="393700"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2744,11 +2486,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2089150</xdr:colOff>
+          <xdr:colOff>2085975</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>504825</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2062" name="Object 14" hidden="1">
               <a:extLst>
@@ -2759,14 +2501,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4198620" y="8969375"/>
-              <a:ext cx="2032000" cy="419100"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2781,15 +2534,15 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>793750</xdr:rowOff>
+          <xdr:rowOff>790575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>457200</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2063" name="Object 15" hidden="1">
               <a:extLst>
@@ -2800,14 +2553,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="9429750" y="8317230"/>
-              <a:ext cx="951230" cy="1023620"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2822,15 +2586,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>41275</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1689100</xdr:colOff>
+          <xdr:colOff>1685925</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2065" name="Object 17" hidden="1">
               <a:extLst>
@@ -2841,14 +2605,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5170170" y="18039080"/>
-              <a:ext cx="660400" cy="254000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2863,15 +2638,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1663700</xdr:colOff>
+          <xdr:colOff>1666875</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>273050</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2067" name="Object 19" hidden="1">
               <a:extLst>
@@ -2882,14 +2657,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5208270" y="18971895"/>
-              <a:ext cx="596900" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2904,15 +2690,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>885825</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>60325</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>460375</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2068" name="Object 20" hidden="1">
               <a:extLst>
@@ -2923,14 +2709,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5027295" y="19279870"/>
-              <a:ext cx="1812290" cy="254000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2945,15 +2742,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>34925</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1631950</xdr:colOff>
+          <xdr:colOff>1628775</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2069" name="Object 21" hidden="1">
               <a:extLst>
@@ -2964,14 +2761,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4655820" y="19597370"/>
-              <a:ext cx="1117600" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2986,15 +2794,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>34925</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2197100</xdr:colOff>
+          <xdr:colOff>2200275</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>263525</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2070" name="Object 22" hidden="1">
               <a:extLst>
@@ -3005,14 +2813,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5170170" y="19902170"/>
-              <a:ext cx="1168400" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3027,15 +2846,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>41275</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2072" name="Object 24" hidden="1">
               <a:extLst>
@@ -3046,14 +2865,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5408295" y="20376515"/>
-              <a:ext cx="1012190" cy="482600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3072,11 +2902,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>730250</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>571500</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2073" name="Object 25" hidden="1">
               <a:extLst>
@@ -3087,14 +2917,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5246370" y="20973415"/>
-              <a:ext cx="2497455" cy="457200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3109,15 +2950,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1193800</xdr:colOff>
+          <xdr:colOff>1190625</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2074" name="Object 26" hidden="1">
               <a:extLst>
@@ -3128,14 +2969,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4484370" y="24517985"/>
-              <a:ext cx="850900" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3150,15 +3002,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>752475</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2075" name="Object 27" hidden="1">
               <a:extLst>
@@ -3169,14 +3021,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4893945" y="25020905"/>
-              <a:ext cx="1485265" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3191,15 +3054,15 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>136525</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1473200</xdr:colOff>
+          <xdr:colOff>1476375</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>974725</xdr:rowOff>
+          <xdr:rowOff>971550</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2076" name="Object 28" hidden="1">
               <a:extLst>
@@ -3210,14 +3073,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4331970" y="25986740"/>
-              <a:ext cx="1282700" cy="838200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3230,7 +3104,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>351790</xdr:colOff>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>106</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
@@ -3240,7 +3114,7 @@
           <xdr:row>106</xdr:row>
           <xdr:rowOff>542925</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2077" name="Object 29" hidden="1">
               <a:extLst>
@@ -3251,14 +3125,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4493260" y="29663390"/>
-              <a:ext cx="1885950" cy="457200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3271,17 +3156,17 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>542290</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>107</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1837690</xdr:colOff>
+          <xdr:colOff>1838325</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2078" name="Object 30" hidden="1">
               <a:extLst>
@@ -3292,14 +3177,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4683760" y="30212665"/>
-              <a:ext cx="1295400" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3312,17 +3208,17 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>999490</xdr:colOff>
+          <xdr:colOff>1000125</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>920115</xdr:colOff>
+          <xdr:colOff>923925</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2079" name="Object 31" hidden="1">
               <a:extLst>
@@ -3333,14 +3229,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5140960" y="30671135"/>
-              <a:ext cx="3576955" cy="241300"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3353,17 +3260,17 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>570865</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>22225</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1701165</xdr:colOff>
+          <xdr:colOff>1704975</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>250825</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2080" name="Object 32" hidden="1">
               <a:extLst>
@@ -3374,14 +3281,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4712335" y="30947360"/>
-              <a:ext cx="1130300" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3393,53 +3311,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>105410</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>105410</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>562610</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="739775" y="105410"/>
-              <a:ext cx="2035810" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -3447,15 +3319,15 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>48260</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>558800</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>276860</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4097" name="Object 1" hidden="1">
               <a:extLst>
@@ -3466,14 +3338,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3034030" y="227330"/>
-              <a:ext cx="1789430" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3492,11 +3375,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>460375</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4098" name="Object 2" hidden="1">
               <a:extLst>
@@ -3507,14 +3390,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3024505" y="836295"/>
-              <a:ext cx="2334895" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3533,11 +3427,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>292100</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4099" name="Object 3" hidden="1">
               <a:extLst>
@@ -3548,14 +3442,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3091180" y="1271270"/>
-              <a:ext cx="1814195" cy="215900"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3570,15 +3475,15 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22225</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>889000</xdr:rowOff>
+          <xdr:rowOff>885825</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4100" name="Object 4" hidden="1">
               <a:extLst>
@@ -3589,14 +3494,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3043555" y="1664970"/>
-              <a:ext cx="1877695" cy="762000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3615,11 +3531,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>454025</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>415290</xdr:rowOff>
+          <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4101" name="Object 5" hidden="1">
               <a:extLst>
@@ -3630,14 +3546,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3119755" y="3446145"/>
-              <a:ext cx="964565" cy="405765"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3650,17 +3577,17 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>41275</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>628015</xdr:colOff>
+          <xdr:colOff>628650</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>515620</xdr:rowOff>
+          <xdr:rowOff>514350</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4102" name="Object 6" hidden="1">
               <a:extLst>
@@ -3671,14 +3598,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3037205" y="3977640"/>
-              <a:ext cx="3124200" cy="431800"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3689,8 +3627,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -3706,7 +3644,7 @@
           <xdr:row>2</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5121" name="Object 1" hidden="1">
               <a:extLst>
@@ -3717,14 +3655,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1611630" y="453390"/>
-              <a:ext cx="1798320" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3743,11 +3692,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>460375</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>358775</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5123" name="Object 3" hidden="1">
               <a:extLst>
@@ -3758,14 +3707,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1535430" y="882015"/>
-              <a:ext cx="2969260" cy="254000"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3784,11 +3744,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5124" name="Object 4" hidden="1">
               <a:extLst>
@@ -3799,14 +3759,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1811655" y="1212215"/>
-              <a:ext cx="342265" cy="228600"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4074,23 +4045,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="$A8:$XFD9"/>
+      <selection activeCell="B8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7477477477477" customWidth="1"/>
-    <col min="2" max="2" width="18.8738738738739" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="18.1261261261261" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:2">
+    <row r="1" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4098,28 +4068,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="23" customHeight="1" spans="2:2">
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="2:2">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="2:2">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1"/>
-    <row r="6" spans="1:1">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4133,8 +4103,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="69" customHeight="1" spans="1:7">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -4143,59 +4113,59 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:5">
-      <c r="A9" s="11"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="116" customHeight="1" spans="1:3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="123" customHeight="1" spans="1:3">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
       <c r="C11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" ht="78" customHeight="1" spans="1:2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="71" customHeight="1" spans="1:5">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="73" customHeight="1" spans="1:1">
+    <row r="15" spans="1:7" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4206,90 +4176,90 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" progId="Equation.KSEE3" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>91440</xdr:colOff>
+                <xdr:colOff>95250</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>42545</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1635760</xdr:colOff>
+                <xdr:colOff>1638300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>686435</xdr:rowOff>
+                <xdr:rowOff>685800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1025" progId="Equation.KSEE3" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="Equation.KSEE3" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>22225</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>521335</xdr:rowOff>
+                <xdr:rowOff>523875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>994410</xdr:colOff>
+                <xdr:colOff>990600</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>824865</xdr:rowOff>
+                <xdr:rowOff>828675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1027" progId="Equation.KSEE3" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Equation.KSEE3" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>48895</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>936625</xdr:colOff>
+                <xdr:colOff>933450</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>277495</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1028" progId="Equation.KSEE3" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1029" progId="Equation.KSEE3" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -4299,57 +4269,57 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>15875</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>279400</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1029" progId="Equation.KSEE3" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1030" progId="Equation.KSEE3" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>939800</xdr:colOff>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>273050</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1030" progId="Equation.KSEE3" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1030" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1031" progId="Equation.KSEE3" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>15875</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>316865</xdr:colOff>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
@@ -4358,98 +4328,98 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1031" progId="Equation.KSEE3" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1031" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1032" progId="Equation.KSEE3" r:id="rId15">
-          <objectPr defaultSize="0" r:id="rId16">
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId15">
+          <objectPr defaultSize="0" altText="" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>203200</xdr:rowOff>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>622300</xdr:rowOff>
+                <xdr:rowOff>619125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1032" progId="Equation.KSEE3" r:id="rId15"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1032" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1033" progId="Equation.KSEE3" r:id="rId17">
-          <objectPr defaultSize="0" r:id="rId18">
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>22225</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>250825</xdr:rowOff>
+                <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1033" progId="Equation.KSEE3" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1033" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1034" progId="Equation.KSEE3" r:id="rId19">
-          <objectPr defaultSize="0" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>60325</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1745615</xdr:colOff>
+                <xdr:colOff>1743075</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>1380490</xdr:rowOff>
+                <xdr:rowOff>1381125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1034" progId="Equation.KSEE3" r:id="rId19"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1034" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1035" progId="Equation.KSEE3" r:id="rId21">
-          <objectPr defaultSize="0" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>60325</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1745615</xdr:colOff>
+                <xdr:colOff>1743075</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>1304925</xdr:rowOff>
               </to>
@@ -4458,48 +4428,48 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1035" progId="Equation.KSEE3" r:id="rId21"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1035" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1036" progId="Equation.KSEE3" r:id="rId23">
-          <objectPr defaultSize="0" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>149225</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>815975</xdr:rowOff>
+                <xdr:rowOff>819150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1036" progId="Equation.KSEE3" r:id="rId23"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1036" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1037" progId="Equation.KSEE3" r:id="rId25">
-          <objectPr defaultSize="0" r:id="rId26">
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId25">
+          <objectPr defaultSize="0" altText="" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>254000</xdr:rowOff>
+                <xdr:rowOff>257175</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>965200</xdr:colOff>
+                <xdr:colOff>962025</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>647700</xdr:rowOff>
               </to>
@@ -4508,13 +4478,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1037" progId="Equation.KSEE3" r:id="rId25"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1037" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1038" progId="Equation.KSEE3" r:id="rId27">
-          <objectPr defaultSize="0" r:id="rId28">
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId27">
+          <objectPr defaultSize="0" altText="" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4533,13 +4503,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1038" progId="Equation.KSEE3" r:id="rId27"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1038" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1039" progId="Equation.KSEE3" r:id="rId29">
-          <objectPr defaultSize="0" r:id="rId30">
+        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId29">
+          <objectPr defaultSize="0" altText="" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4549,116 +4519,116 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>234950</xdr:rowOff>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1039" progId="Equation.KSEE3" r:id="rId29"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1039" r:id="rId29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1040" progId="Equation.KSEE3" r:id="rId31">
-          <objectPr defaultSize="0" r:id="rId32">
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId31">
+          <objectPr defaultSize="0" altText="" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>279400</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>279400</xdr:colOff>
+                <xdr:colOff>276225</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>215900</xdr:rowOff>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1040" progId="Equation.KSEE3" r:id="rId31"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1040" r:id="rId31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1041" progId="Equation.KSEE3" r:id="rId33">
-          <objectPr defaultSize="0" r:id="rId34">
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId33">
+          <objectPr defaultSize="0" altText="" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>301625</xdr:rowOff>
+                <xdr:rowOff>304800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>212725</xdr:rowOff>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1041" progId="Equation.KSEE3" r:id="rId33"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1041" r:id="rId33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1042" progId="Equation.KSEE3" r:id="rId35">
-          <objectPr defaultSize="0" r:id="rId36">
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId35">
+          <objectPr defaultSize="0" altText="" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>250825</xdr:rowOff>
+                <xdr:rowOff>247650</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>177165</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>225425</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1042" progId="Equation.KSEE3" r:id="rId35"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1042" r:id="rId35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1043" progId="Equation.KSEE3" r:id="rId37">
-          <objectPr defaultSize="0" r:id="rId38">
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId37">
+          <objectPr defaultSize="0" altText="" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>250825</xdr:rowOff>
+                <xdr:rowOff>247650</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>165100</xdr:colOff>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>53975</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1043" progId="Equation.KSEE3" r:id="rId37"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4666,38 +4636,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5045045045045" customWidth="1"/>
-    <col min="2" max="2" width="27.8738738738739" customWidth="1"/>
-    <col min="3" max="3" width="13.3783783783784" customWidth="1"/>
-    <col min="4" max="4" width="31.7477477477477" customWidth="1"/>
-    <col min="6" max="6" width="11.1261261261261" customWidth="1"/>
-    <col min="7" max="7" width="17.7477477477477" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="84" customHeight="1" spans="1:1">
+    <row r="1" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:1">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1"/>
-    <row r="4" ht="47" customHeight="1"/>
-    <row r="5" ht="26" customHeight="1"/>
-    <row r="6" ht="81" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4710,7 +4679,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="80" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>28</v>
@@ -4721,7 +4690,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>29</v>
@@ -4732,7 +4701,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" ht="39" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>30</v>
@@ -4745,7 +4714,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" ht="21" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>32</v>
@@ -4756,7 +4725,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -4765,9 +4734,9 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" ht="28" customHeight="1"/>
-    <row r="15" ht="27" customHeight="1"/>
-    <row r="16" spans="1:6">
+    <row r="14" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -4787,22 +4756,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="66" customHeight="1" spans="1:7">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="27" customHeight="1" spans="1:7">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -4810,18 +4779,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="2:7">
+    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -4832,8 +4801,8 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4845,8 +4814,8 @@
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
       <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
@@ -4856,8 +4825,8 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4869,9 +4838,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" ht="14.55" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="29"/>
+      <c r="B26" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="6"/>
@@ -4880,9 +4849,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" ht="58.3" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="1:7" ht="69" x14ac:dyDescent="0.15">
+      <c r="A27" s="29"/>
+      <c r="B27" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="6"/>
@@ -4891,9 +4860,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" ht="43.7" spans="1:7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="6"/>
@@ -4902,7 +4871,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4911,14 +4880,14 @@
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" ht="14.55" spans="1:7">
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="6"/>
@@ -4926,7 +4895,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4935,11 +4904,11 @@
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" ht="14.55" spans="1:7">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="6"/>
@@ -4948,9 +4917,9 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" ht="29.15" spans="1:7">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16" t="s">
+    <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="6"/>
@@ -4959,9 +4928,9 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" ht="29.15" spans="1:7">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="29"/>
+      <c r="B34" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="6"/>
@@ -4970,9 +4939,9 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" ht="14.55" spans="1:7">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="29"/>
+      <c r="B35" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="6"/>
@@ -4981,11 +4950,11 @@
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" ht="29.15" spans="1:7">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="6"/>
@@ -4994,9 +4963,9 @@
       <c r="F36" s="6"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" ht="14.55" spans="1:7">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16" t="s">
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="29"/>
+      <c r="B37" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="6"/>
@@ -5005,9 +4974,9 @@
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" ht="14.55" spans="1:7">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19" t="s">
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="30"/>
+      <c r="B38" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="9"/>
@@ -5016,8 +4985,8 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="40" ht="14.55" spans="1:7">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="3"/>
@@ -5027,8 +4996,8 @@
       <c r="F40" s="3"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" ht="43.7" spans="1:7">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:7" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B41" s="6"/>
@@ -5038,8 +5007,8 @@
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" ht="14.55" spans="1:7">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5051,8 +5020,8 @@
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" ht="14.55" spans="1:7">
-      <c r="A43" s="21"/>
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="18"/>
       <c r="B43" s="6" t="s">
         <v>68</v>
       </c>
@@ -5064,8 +5033,8 @@
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" ht="14.55" spans="1:7">
-      <c r="A44" s="21"/>
+    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
       <c r="B44" s="6" t="s">
         <v>70</v>
       </c>
@@ -5077,8 +5046,8 @@
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" ht="14.55" spans="1:7">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="18"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -5086,8 +5055,8 @@
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" ht="14.55" spans="1:7">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -5099,7 +5068,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
         <v>74</v>
@@ -5110,7 +5079,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
         <v>75</v>
@@ -5121,7 +5090,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5130,8 +5099,8 @@
       <c r="F49" s="6"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -5143,12 +5112,12 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="14"/>
-      <c r="B51" s="22" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="29"/>
+      <c r="B51" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="32" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -5158,10 +5127,10 @@
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="14"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="29"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="6" t="s">
         <v>80</v>
       </c>
@@ -5169,10 +5138,10 @@
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="14"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="29"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -5182,10 +5151,10 @@
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="14"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="6" t="s">
         <v>83</v>
       </c>
@@ -5193,10 +5162,10 @@
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="14"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="6" t="s">
         <v>84</v>
       </c>
@@ -5204,10 +5173,10 @@
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="14"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="6" t="s">
         <v>85</v>
       </c>
@@ -5215,10 +5184,10 @@
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="14"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="29"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="6" t="s">
         <v>86</v>
       </c>
@@ -5226,12 +5195,12 @@
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" ht="24" customHeight="1" spans="1:7">
-      <c r="A58" s="14"/>
-      <c r="B58" s="22" t="s">
+    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="29"/>
+      <c r="B58" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -5241,10 +5210,10 @@
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="14"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="6" t="s">
         <v>89</v>
       </c>
@@ -5252,10 +5221,10 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="14"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="6" t="s">
         <v>90</v>
       </c>
@@ -5263,10 +5232,10 @@
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" ht="21" customHeight="1" spans="1:7">
-      <c r="A61" s="14"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="6" t="s">
         <v>91</v>
       </c>
@@ -5274,10 +5243,10 @@
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:7">
-      <c r="A62" s="14"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
+    <row r="62" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="6" t="s">
         <v>92</v>
       </c>
@@ -5287,12 +5256,12 @@
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" ht="27" customHeight="1" spans="1:7">
-      <c r="A63" s="14"/>
-      <c r="B63" s="22" t="s">
+    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="29"/>
+      <c r="B63" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -5302,10 +5271,10 @@
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" ht="24" customHeight="1" spans="1:7">
-      <c r="A64" s="14"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="29"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="6" t="s">
         <v>96</v>
       </c>
@@ -5313,10 +5282,10 @@
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" ht="22" customHeight="1" spans="1:7">
-      <c r="A65" s="14"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+    <row r="65" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="29"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="6" t="s">
         <v>97</v>
       </c>
@@ -5326,8 +5295,8 @@
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="14"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="29"/>
       <c r="B66" s="6" t="s">
         <v>99</v>
       </c>
@@ -5341,8 +5310,8 @@
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" ht="42" customHeight="1" spans="1:7">
-      <c r="A67" s="14" t="s">
+    <row r="67" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -5358,8 +5327,8 @@
       <c r="F67" s="6"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" ht="60" customHeight="1" spans="1:7">
-      <c r="A68" s="14"/>
+    <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="29"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
@@ -5369,8 +5338,8 @@
       <c r="F68" s="6"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="14"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="29"/>
       <c r="B69" s="6" t="s">
         <v>106</v>
       </c>
@@ -5380,8 +5349,8 @@
       <c r="F69" s="6"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="14"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="29"/>
       <c r="B70" s="6" t="s">
         <v>107</v>
       </c>
@@ -5391,7 +5360,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -5400,7 +5369,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>108</v>
       </c>
@@ -5411,7 +5380,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>109</v>
       </c>
@@ -5422,8 +5391,8 @@
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="14" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -5435,8 +5404,8 @@
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="14"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="29"/>
       <c r="B76" s="6" t="s">
         <v>111</v>
       </c>
@@ -5448,8 +5417,8 @@
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="14"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="29"/>
       <c r="B77" s="6" t="s">
         <v>113</v>
       </c>
@@ -5461,8 +5430,8 @@
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="14"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="29"/>
       <c r="B78" s="6" t="s">
         <v>115</v>
       </c>
@@ -5472,8 +5441,8 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="14"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="29"/>
       <c r="B79" s="6" t="s">
         <v>116</v>
       </c>
@@ -5483,8 +5452,8 @@
       <c r="F79" s="6"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -5496,8 +5465,8 @@
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="29"/>
       <c r="B81" s="6" t="s">
         <v>119</v>
       </c>
@@ -5507,8 +5476,8 @@
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="14"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="29"/>
       <c r="B82" s="6" t="s">
         <v>120</v>
       </c>
@@ -5518,8 +5487,8 @@
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="14" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -5531,12 +5500,12 @@
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="14"/>
-      <c r="B84" s="23" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="29"/>
+      <c r="B84" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="32" t="s">
         <v>78</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -5546,10 +5515,10 @@
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" ht="24" customHeight="1" spans="1:7">
-      <c r="A85" s="14"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
+    <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="29"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="6" t="s">
         <v>124</v>
       </c>
@@ -5557,10 +5526,10 @@
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="14"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="29"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
       <c r="D86" s="6" t="s">
         <v>125</v>
       </c>
@@ -5568,10 +5537,10 @@
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" ht="27" customHeight="1" spans="1:7">
-      <c r="A87" s="14"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
+    <row r="87" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="29"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="6" t="s">
         <v>126</v>
       </c>
@@ -5579,10 +5548,10 @@
       <c r="F87" s="6"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="14"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="29"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
       <c r="D88" s="6" t="s">
         <v>127</v>
       </c>
@@ -5590,10 +5559,10 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="14"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="29"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
       <c r="D89" s="6" t="s">
         <v>128</v>
       </c>
@@ -5601,10 +5570,10 @@
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="14"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="29"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -5614,19 +5583,19 @@
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" ht="82" customHeight="1" spans="1:7">
-      <c r="A91" s="14"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
+    <row r="91" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="29"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="14"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="29"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="6" t="s">
         <v>130</v>
       </c>
@@ -5634,97 +5603,97 @@
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="14"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
+    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="29"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="20" t="s">
         <v>132</v>
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="14"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="29"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="26">
+      <c r="E94" s="21">
         <v>4</v>
       </c>
-      <c r="F94" s="27">
+      <c r="F94" s="22">
         <v>-1</v>
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="14"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="29"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="14"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="29"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="26">
+      <c r="E96" s="21">
         <v>2</v>
       </c>
-      <c r="F96" s="27">
+      <c r="F96" s="22">
         <v>0</v>
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="14"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="29"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="14"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="29"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="28">
+      <c r="E98" s="23">
         <v>2</v>
       </c>
-      <c r="F98" s="29">
+      <c r="F98" s="24">
         <v>1</v>
       </c>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="14"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="29"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="14"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="29"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="6" t="s">
         <v>137</v>
       </c>
@@ -5732,10 +5701,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="14"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="29"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="2" t="s">
         <v>131</v>
       </c>
@@ -5745,10 +5714,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="14"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="29"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="5" t="s">
         <v>139</v>
       </c>
@@ -5758,10 +5727,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="14"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="29"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
       <c r="D103" s="5" t="s">
         <v>141</v>
       </c>
@@ -5771,10 +5740,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="14"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="29"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
       <c r="D104" s="5" t="s">
         <v>143</v>
       </c>
@@ -5784,10 +5753,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="14"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="29"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
       <c r="D105" s="5" t="s">
         <v>145</v>
       </c>
@@ -5797,10 +5766,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="14"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="29"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
       <c r="D106" s="8" t="s">
         <v>146</v>
       </c>
@@ -5810,9 +5779,9 @@
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" ht="47" customHeight="1" spans="1:7">
-      <c r="A107" s="14"/>
-      <c r="B107" s="23" t="s">
+    <row r="107" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="29"/>
+      <c r="B107" s="32" t="s">
         <v>148</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -5825,9 +5794,9 @@
       <c r="F107" s="6"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" ht="24" customHeight="1" spans="1:7">
-      <c r="A108" s="14"/>
-      <c r="B108" s="23"/>
+    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="29"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
         <v>96</v>
@@ -5836,9 +5805,9 @@
       <c r="F108" s="6"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="14"/>
-      <c r="B109" s="23"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="29"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
         <v>150</v>
@@ -5847,9 +5816,9 @@
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" ht="21" customHeight="1" spans="1:7">
-      <c r="A110" s="14"/>
-      <c r="B110" s="23"/>
+    <row r="110" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="29"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
         <v>151</v>
@@ -5858,9 +5827,9 @@
       <c r="F110" s="6"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" ht="21" customHeight="1" spans="1:7">
-      <c r="A111" s="14"/>
-      <c r="B111" s="23"/>
+    <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="29"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
         <v>152</v>
@@ -5869,9 +5838,9 @@
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="14"/>
-      <c r="B112" s="23"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="29"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
         <v>153</v>
@@ -5880,7 +5849,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
         <v>102</v>
       </c>
@@ -5893,7 +5862,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
       <c r="B114" s="9" t="s">
         <v>155</v>
@@ -5904,70 +5873,70 @@
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I115" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C90:C106"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B84:B106"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A50:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A112"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A50:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A112"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B84:B106"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="C90:C106"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2049" progId="Equation.KSEE3" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>95250</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>19685</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>790575</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>959485</xdr:rowOff>
+                <xdr:rowOff>962025</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2049" progId="Equation.KSEE3" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2050" progId="Equation.KSEE3" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5979,20 +5948,20 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>809625</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>269875</xdr:rowOff>
+                <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2050" progId="Equation.KSEE3" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2051" progId="Equation.KSEE3" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -6002,72 +5971,72 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>768350</xdr:colOff>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>527050</xdr:rowOff>
+                <xdr:rowOff>523875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2051" progId="Equation.KSEE3" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2052" progId="Equation.KSEE3" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>60325</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>809625</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>974725</xdr:rowOff>
+                <xdr:rowOff>971550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2052" progId="Equation.KSEE3" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2053" progId="Equation.KSEE3" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>53975</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>863600</xdr:colOff>
+                <xdr:colOff>866775</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>993775</xdr:rowOff>
+                <xdr:rowOff>990600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2053" progId="Equation.KSEE3" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2054" progId="Equation.KSEE3" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -6079,80 +6048,80 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1581150</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>346075</xdr:rowOff>
+                <xdr:rowOff>342900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2054" progId="Equation.KSEE3" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2055" progId="Equation.KSEE3" r:id="rId15">
-          <objectPr defaultSize="0" r:id="rId16">
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId15">
+          <objectPr defaultSize="0" altText="" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>879475</xdr:colOff>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>368300</xdr:rowOff>
+                <xdr:rowOff>371475</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2055" progId="Equation.KSEE3" r:id="rId15"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2056" progId="Equation.KSEE3" r:id="rId17">
-          <objectPr defaultSize="0" r:id="rId18">
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>320675</xdr:colOff>
+                <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2056" progId="Equation.KSEE3" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2057" progId="Equation.KSEE3" r:id="rId19">
-          <objectPr defaultSize="0" r:id="rId20">
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>869950</xdr:colOff>
+                <xdr:colOff>866775</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
@@ -6161,23 +6130,23 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2057" progId="Equation.KSEE3" r:id="rId19"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2058" progId="Equation.KSEE3" r:id="rId21">
-          <objectPr defaultSize="0" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>120650</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>16</xdr:row>
                 <xdr:rowOff>514350</xdr:rowOff>
               </to>
@@ -6186,48 +6155,48 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2058" progId="Equation.KSEE3" r:id="rId21"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2059" progId="Equation.KSEE3" r:id="rId23">
-          <objectPr defaultSize="0" r:id="rId24">
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>15875</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>225425</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2059" progId="Equation.KSEE3" r:id="rId23"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2060" progId="Equation.KSEE3" r:id="rId25">
-          <objectPr defaultSize="0" r:id="rId26">
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId25">
+          <objectPr defaultSize="0" altText="" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1406525</xdr:colOff>
+                <xdr:colOff>1409700</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -6236,13 +6205,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2060" progId="Equation.KSEE3" r:id="rId25"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2060" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2062" progId="Equation.KSEE3" r:id="rId27">
-          <objectPr defaultSize="0" r:id="rId28">
+        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId27">
+          <objectPr defaultSize="0" altText="" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6252,7 +6221,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2089150</xdr:colOff>
+                <xdr:colOff>2085975</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>504825</xdr:rowOff>
               </to>
@@ -6261,23 +6230,23 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2062" progId="Equation.KSEE3" r:id="rId27"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2062" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2063" progId="Equation.KSEE3" r:id="rId29">
-          <objectPr defaultSize="0" r:id="rId30">
+        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId29">
+          <objectPr defaultSize="0" altText="" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>793750</xdr:rowOff>
+                <xdr:rowOff>790575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>457200</xdr:rowOff>
               </to>
@@ -6286,23 +6255,23 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2063" progId="Equation.KSEE3" r:id="rId29"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2063" r:id="rId29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2065" progId="Equation.KSEE3" r:id="rId31">
-          <objectPr defaultSize="0" r:id="rId32">
+        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId31">
+          <objectPr defaultSize="0" altText="" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>57</xdr:row>
-                <xdr:rowOff>41275</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1689100</xdr:colOff>
+                <xdr:colOff>1685925</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>295275</xdr:rowOff>
               </to>
@@ -6311,48 +6280,48 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2065" progId="Equation.KSEE3" r:id="rId31"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2065" r:id="rId31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2067" progId="Equation.KSEE3" r:id="rId33">
-          <objectPr defaultSize="0" r:id="rId34">
+        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId33">
+          <objectPr defaultSize="0" altText="" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1066800</xdr:colOff>
                 <xdr:row>61</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1663700</xdr:colOff>
+                <xdr:colOff>1666875</xdr:colOff>
                 <xdr:row>61</xdr:row>
-                <xdr:rowOff>273050</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2067" progId="Equation.KSEE3" r:id="rId33"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2067" r:id="rId33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2068" progId="Equation.KSEE3" r:id="rId35">
-          <objectPr defaultSize="0" r:id="rId36">
+        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId35">
+          <objectPr defaultSize="0" altText="" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>885825</xdr:colOff>
                 <xdr:row>62</xdr:row>
-                <xdr:rowOff>60325</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>460375</xdr:colOff>
+                <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>62</xdr:row>
                 <xdr:rowOff>314325</xdr:rowOff>
               </to>
@@ -6361,23 +6330,23 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2068" progId="Equation.KSEE3" r:id="rId35"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2068" r:id="rId35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2069" progId="Equation.KSEE3" r:id="rId37">
-          <objectPr defaultSize="0" r:id="rId38">
+        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId37">
+          <objectPr defaultSize="0" altText="" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>63</xdr:row>
-                <xdr:rowOff>34925</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1631950</xdr:colOff>
+                <xdr:colOff>1628775</xdr:colOff>
                 <xdr:row>63</xdr:row>
                 <xdr:rowOff>276225</xdr:rowOff>
               </to>
@@ -6386,48 +6355,48 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2069" progId="Equation.KSEE3" r:id="rId37"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2069" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2070" progId="Equation.KSEE3" r:id="rId39">
-          <objectPr defaultSize="0" r:id="rId40">
+        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId39">
+          <objectPr defaultSize="0" altText="" r:id="rId40">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>64</xdr:row>
-                <xdr:rowOff>34925</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2197100</xdr:colOff>
+                <xdr:colOff>2200275</xdr:colOff>
                 <xdr:row>64</xdr:row>
-                <xdr:rowOff>263525</xdr:rowOff>
+                <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2070" progId="Equation.KSEE3" r:id="rId39"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2070" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2072" progId="Equation.KSEE3" r:id="rId41">
-          <objectPr defaultSize="0" r:id="rId42">
+        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId41">
+          <objectPr defaultSize="0" altText="" r:id="rId42">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>66</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>41275</xdr:colOff>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>67</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6436,13 +6405,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2072" progId="Equation.KSEE3" r:id="rId41"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2072" r:id="rId41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2073" progId="Equation.KSEE3" r:id="rId43">
-          <objectPr defaultSize="0" r:id="rId44">
+        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId43">
+          <objectPr defaultSize="0" altText="" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6452,7 +6421,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>730250</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>67</xdr:row>
                 <xdr:rowOff>571500</xdr:rowOff>
               </to>
@@ -6461,92 +6430,92 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2073" progId="Equation.KSEE3" r:id="rId43"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2073" r:id="rId43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2074" progId="Equation.KSEE3" r:id="rId45">
-          <objectPr defaultSize="0" r:id="rId46">
+        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId45">
+          <objectPr defaultSize="0" altText="" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>84</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1193800</xdr:colOff>
+                <xdr:colOff>1190625</xdr:colOff>
                 <xdr:row>84</xdr:row>
-                <xdr:rowOff>260350</xdr:rowOff>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2074" progId="Equation.KSEE3" r:id="rId45"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2074" r:id="rId45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2075" progId="Equation.KSEE3" r:id="rId47">
-          <objectPr defaultSize="0" r:id="rId48">
+        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId47">
+          <objectPr defaultSize="0" altText="" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>752475</xdr:colOff>
                 <xdr:row>86</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>86</xdr:row>
-                <xdr:rowOff>279400</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2075" progId="Equation.KSEE3" r:id="rId47"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2075" r:id="rId47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2076" progId="Equation.KSEE3" r:id="rId49">
-          <objectPr defaultSize="0" r:id="rId50">
+        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId49">
+          <objectPr defaultSize="0" altText="" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>90</xdr:row>
-                <xdr:rowOff>136525</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1473200</xdr:colOff>
+                <xdr:colOff>1476375</xdr:colOff>
                 <xdr:row>90</xdr:row>
-                <xdr:rowOff>974725</xdr:rowOff>
+                <xdr:rowOff>971550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2076" progId="Equation.KSEE3" r:id="rId49"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2076" r:id="rId49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2077" progId="Equation.KSEE3" r:id="rId51">
-          <objectPr defaultSize="0" r:id="rId52">
+        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId51">
+          <objectPr defaultSize="0" altText="" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>351790</xdr:colOff>
+                <xdr:colOff>352425</xdr:colOff>
                 <xdr:row>106</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
@@ -6561,82 +6530,82 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2077" progId="Equation.KSEE3" r:id="rId51"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2077" r:id="rId51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2078" progId="Equation.KSEE3" r:id="rId53">
-          <objectPr defaultSize="0" r:id="rId54">
+        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId53">
+          <objectPr defaultSize="0" altText="" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>542290</xdr:colOff>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>107</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1837690</xdr:colOff>
+                <xdr:colOff>1838325</xdr:colOff>
                 <xdr:row>107</xdr:row>
-                <xdr:rowOff>279400</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2078" progId="Equation.KSEE3" r:id="rId53"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2078" r:id="rId53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2079" progId="Equation.KSEE3" r:id="rId55">
-          <objectPr defaultSize="0" r:id="rId56">
+        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId55">
+          <objectPr defaultSize="0" altText="" r:id="rId56">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>999490</xdr:colOff>
+                <xdr:colOff>1000125</xdr:colOff>
                 <xdr:row>109</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>920115</xdr:colOff>
+                <xdr:colOff>923925</xdr:colOff>
                 <xdr:row>109</xdr:row>
-                <xdr:rowOff>254000</xdr:rowOff>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2079" progId="Equation.KSEE3" r:id="rId55"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2079" r:id="rId55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2080" progId="Equation.KSEE3" r:id="rId57">
-          <objectPr defaultSize="0" r:id="rId58">
+        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId57">
+          <objectPr defaultSize="0" altText="" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>570865</xdr:colOff>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>110</xdr:row>
-                <xdr:rowOff>22225</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1701165</xdr:colOff>
+                <xdr:colOff>1704975</xdr:colOff>
                 <xdr:row>110</xdr:row>
-                <xdr:rowOff>250825</xdr:rowOff>
+                <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2080" progId="Equation.KSEE3" r:id="rId57"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2080" r:id="rId57"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6644,171 +6613,116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.3783783783784" customWidth="1"/>
+    <col min="1" max="2" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>157</v>
       </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="3073" progId="Equation.KSEE3" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="4097" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>105410</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>105410</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>562610</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="3073" progId="Equation.KSEE3" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="21.2522522522523" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" ht="42" customHeight="1" spans="1:2">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" ht="38" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:2">
-      <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" ht="79" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" ht="36" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" ht="48" customHeight="1" spans="2:2">
-      <c r="B12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="4097" progId="Equation.KSEE3" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>48260</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>558800</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>276860</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="4097" progId="Equation.KSEE3" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="4097" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="4098" progId="Equation.KSEE3" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="4098" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -6818,7 +6732,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>460375</xdr:colOff>
+                <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
@@ -6827,13 +6741,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="4098" progId="Equation.KSEE3" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="4098" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="4099" progId="Equation.KSEE3" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="4099" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -6843,47 +6757,47 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>6350</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>292100</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="4099" progId="Equation.KSEE3" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="4099" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="4100" progId="Equation.KSEE3" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="4100" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>22225</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>889000</xdr:rowOff>
+                <xdr:rowOff>885825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="4100" progId="Equation.KSEE3" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="4100" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="4101" progId="Equation.KSEE3" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="4101" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -6893,127 +6807,126 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>454025</xdr:colOff>
+                <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>415290</xdr:rowOff>
+                <xdr:rowOff>419100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="4101" progId="Equation.KSEE3" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="4101" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="4102" progId="Equation.KSEE3" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="4102" r:id="rId13">
           <objectPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>41275</xdr:colOff>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>628015</xdr:colOff>
+                <xdr:colOff>628650</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>515620</xdr:rowOff>
+                <xdr:rowOff>514350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="4102" progId="Equation.KSEE3" r:id="rId13"/>
+        <oleObject progId="Equation.KSEE3" shapeId="4102" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.3783783783784" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" ht="32" customHeight="1" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="2:3">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>178</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>180</v>
       </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="5121" progId="Equation.KSEE3" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="5121" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7032,13 +6945,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="5121" progId="Equation.KSEE3" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="5121" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="5123" progId="Equation.KSEE3" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="5123" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7048,22 +6961,22 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>460375</xdr:colOff>
+                <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>358775</xdr:rowOff>
+                <xdr:rowOff>361950</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="5123" progId="Equation.KSEE3" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="5123" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="5124" progId="Equation.KSEE3" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="5124" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7073,7 +6986,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
@@ -7082,7 +6995,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="5124" progId="Equation.KSEE3" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="5124" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/[6] 数学/[6-1] 回归/回归.xlsx
+++ b/[6] 数学/[6-1] 回归/回归.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\git\MyKnowledge\[6] 数学\[6-1] 回归\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\GitH\MyKnowledge\[6] 数学\[6-1] 回归\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一元回归" sheetId="1" r:id="rId1"/>
@@ -241,12 +241,6 @@
     <t>3、变换模型形式（用一阶差分回归，diff）</t>
   </si>
   <si>
-    <t>4、逐步回归法：</t>
-  </si>
-  <si>
-    <t>补救2:</t>
-  </si>
-  <si>
     <t>5、岭回归法（是一种有偏估计）</t>
   </si>
   <si>
@@ -626,6 +620,19 @@
   </si>
   <si>
     <t>F较大时，拒绝原假设，认为存在设定误差</t>
+  </si>
+  <si>
+    <t>补救2:（改变OLS）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、逐步回归法：
+step1：对每一个解释变量和被解释变量做回归，以贡献最大为基础
+step2：逐个引入新变量，
+        if 引入后改进了R^2和F检验，且其它解释变量的t检验显著，保留该变量
+        elseif 引入后不改进R^2和F检验，且其它解释变量的t检验显著，认为是多余的
+        elseif 引入后不改进R^2和F检验，且其它解释变量的t检验变得不显著，认为有严重的多重共线性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -865,16 +872,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,21 +940,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -992,21 +984,6 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4639,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4802,7 +4779,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4815,7 +4792,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
@@ -4826,7 +4803,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4839,7 +4816,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="13" t="s">
         <v>49</v>
       </c>
@@ -4850,7 +4827,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="69" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="14" t="s">
         <v>50</v>
       </c>
@@ -4861,7 +4838,7 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="14" t="s">
         <v>51</v>
       </c>
@@ -4905,7 +4882,7 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -4918,7 +4895,7 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="14" t="s">
         <v>57</v>
       </c>
@@ -4929,7 +4906,7 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="14" t="s">
         <v>58</v>
       </c>
@@ -4939,10 +4916,10 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
+    <row r="35" spans="1:7" ht="224.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="31"/>
       <c r="B35" s="15" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -4951,11 +4928,11 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="s">
-        <v>60</v>
+      <c r="A36" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4964,9 +4941,9 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -4975,9 +4952,9 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -4987,7 +4964,7 @@
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4998,7 +4975,7 @@
     </row>
     <row r="41" spans="1:7" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5009,10 +4986,10 @@
     </row>
     <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -5023,10 +5000,10 @@
     <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -5036,10 +5013,10 @@
     <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -5057,10 +5034,10 @@
     </row>
     <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -5071,7 +5048,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -5082,7 +5059,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -5100,11 +5077,11 @@
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -5113,235 +5090,235 @@
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="31" t="s">
+      <c r="A51" s="31"/>
+      <c r="B51" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32" t="s">
-        <v>81</v>
+      <c r="A53" s="31"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
-      <c r="B58" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>81</v>
+      <c r="A58" s="31"/>
+      <c r="B58" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
-      <c r="B63" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>81</v>
+      <c r="A63" s="31"/>
+      <c r="B63" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="29"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -5350,9 +5327,9 @@
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -5371,7 +5348,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5382,7 +5359,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -5392,11 +5369,11 @@
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="29" t="s">
-        <v>66</v>
+      <c r="A75" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -5405,12 +5382,12 @@
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -5418,12 +5395,12 @@
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5431,9 +5408,9 @@
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -5442,9 +5419,9 @@
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -5453,11 +5430,11 @@
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="29" t="s">
-        <v>117</v>
+      <c r="A80" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -5466,9 +5443,9 @@
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -5477,9 +5454,9 @@
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -5488,11 +5465,11 @@
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -5501,125 +5478,125 @@
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="29"/>
-      <c r="B84" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>78</v>
+      <c r="A84" s="31"/>
+      <c r="B84" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
       <c r="D86" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32" t="s">
-        <v>81</v>
+      <c r="A90" s="31"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="6"/>
       <c r="E93" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="6"/>
       <c r="E94" s="21">
         <v>4</v>
@@ -5630,22 +5607,22 @@
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
       <c r="D95" s="6"/>
       <c r="E95" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
       <c r="D96" s="6"/>
       <c r="E96" s="21">
         <v>2</v>
@@ -5656,22 +5633,22 @@
       <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
       <c r="D97" s="6"/>
       <c r="E97" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="29"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="6"/>
       <c r="E98" s="23">
         <v>2</v>
@@ -5682,168 +5659,168 @@
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="29"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="29"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
       <c r="D100" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="29"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="29"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
       <c r="D102" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="29"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
+      <c r="A103" s="31"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
       <c r="D103" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="29"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
       <c r="D104" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="29"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
       <c r="D105" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="29"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
       <c r="D106" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="29"/>
-      <c r="B107" s="32" t="s">
-        <v>148</v>
+      <c r="A107" s="31"/>
+      <c r="B107" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="29"/>
-      <c r="B108" s="32"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="29"/>
-      <c r="B109" s="32"/>
+      <c r="A109" s="31"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="29"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="29"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="29"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -5851,10 +5828,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -5865,7 +5842,7 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
       <c r="B114" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -5875,32 +5852,32 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I115" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A50:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A112"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B84:B106"/>
+    <mergeCell ref="B107:B112"/>
     <mergeCell ref="C90:C106"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C84:C89"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B84:B106"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A50:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A112"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6616,7 +6593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -6627,65 +6604,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6863,13 +6840,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -6877,44 +6854,44 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/[6] 数学/[6-1] 回归/回归.xlsx
+++ b/[6] 数学/[6-1] 回归/回归.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="一元回归" sheetId="1" r:id="rId1"/>
     <sheet name="多元回归" sheetId="2" r:id="rId2"/>
-    <sheet name="虚拟变量回归" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="模型的统计检验" sheetId="5" r:id="rId3"/>
+    <sheet name="模型应用" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="174">
   <si>
     <t>假设：</t>
   </si>
@@ -529,66 +529,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>特点</t>
-  </si>
-  <si>
-    <t>加法模型</t>
-  </si>
-  <si>
-    <t>β恒定</t>
-  </si>
-  <si>
-    <t>加法模型的变种1（交互作用）</t>
-  </si>
-  <si>
-    <t>乘法模型</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>αβ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>都变化</t>
-    </r>
-  </si>
-  <si>
-    <t>分段模型</t>
-  </si>
-  <si>
-    <t>回归出两个直线，共点</t>
-  </si>
-  <si>
-    <t>虚拟被解释变量</t>
-  </si>
-  <si>
-    <t>线性概率模型LPM</t>
-  </si>
-  <si>
-    <t>logit回归</t>
-  </si>
-  <si>
-    <t>1、模型</t>
-  </si>
-  <si>
-    <t>2、参数计算(MLE)</t>
-  </si>
-  <si>
     <t>一般性检验</t>
   </si>
   <si>
@@ -634,12 +574,37 @@
         elseif 引入后不改进R^2和F检验，且其它解释变量的t检验变得不显著，认为有严重的多重共线性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Dependent Variables</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualitative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>logit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANOVA
+ttest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +641,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -784,11 +763,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -872,17 +848,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3294,323 +3276,6 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4097"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4098"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4099" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4099"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>885825</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4100" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4100"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4101" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4101"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4102" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4102"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
@@ -4025,8 +3690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:XFD9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4081,7 +3746,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -4090,23 +3755,23 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -4114,31 +3779,31 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="C11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4616,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -4644,72 +4309,72 @@
     <row r="4" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4734,21 +4399,21 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -4760,7 +4425,7 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G20" t="s">
@@ -4768,1087 +4433,1087 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="69" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="224.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="31"/>
+      <c r="D54" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="6" t="s">
+      <c r="C55" s="31"/>
+      <c r="D55" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="31"/>
+      <c r="D56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="31"/>
+      <c r="D60" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="30"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="31"/>
+      <c r="D62" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="7"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="7"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="30"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="31"/>
+      <c r="D64" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="30"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="31"/>
+      <c r="D65" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="7"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="7"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="28"/>
+      <c r="B70" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="7"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="7"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="28"/>
+      <c r="B76" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="7"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="28"/>
+      <c r="B77" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="28"/>
+      <c r="B79" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="7"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="31"/>
-      <c r="B82" s="6" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="7"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="7"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="31"/>
-      <c r="B84" s="29" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="7"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="31"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="6" t="s">
+      <c r="A85" s="28"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="7"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="6" t="s">
+      <c r="A86" s="28"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="7"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="6" t="s">
+      <c r="A87" s="28"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="7"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="31"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="6" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="7"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="31"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="6" t="s">
+      <c r="A89" s="28"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="7"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="31"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29" t="s">
+      <c r="A90" s="28"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="7"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="7"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="31"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="6" t="s">
+      <c r="A92" s="28"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="7"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="19" t="s">
+      <c r="A93" s="28"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="F93" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G93" s="7"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="31"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="21">
+      <c r="A94" s="28"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="20">
         <v>4</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="21">
         <v>-1</v>
       </c>
-      <c r="G94" s="7"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="31"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="21" t="s">
+      <c r="A95" s="28"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F95" s="22" t="s">
+      <c r="F95" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G95" s="7"/>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="31"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="21">
+      <c r="A96" s="28"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="20">
         <v>2</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F96" s="21">
         <v>0</v>
       </c>
-      <c r="G96" s="7"/>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="21" t="s">
+      <c r="A97" s="28"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G97" s="7"/>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="31"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="23">
+      <c r="A98" s="28"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="22">
         <v>2</v>
       </c>
-      <c r="F98" s="24">
+      <c r="F98" s="23">
         <v>1</v>
       </c>
-      <c r="G98" s="7"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="31"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="7"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="31"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="6" t="s">
+      <c r="A100" s="28"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="7"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="31"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="2" t="s">
+      <c r="A101" s="28"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="7"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="31"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="5" t="s">
+      <c r="A102" s="28"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="7"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="31"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="5" t="s">
+      <c r="A103" s="28"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F103" s="6"/>
-      <c r="G103" s="7"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="31"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="5" t="s">
+      <c r="A104" s="28"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="7"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="31"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="5" t="s">
+      <c r="A105" s="28"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="7"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="31"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="8" t="s">
+      <c r="A106" s="28"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F106" s="6"/>
-      <c r="G106" s="7"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="31"/>
-      <c r="B107" s="29" t="s">
+      <c r="A107" s="28"/>
+      <c r="B107" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="7"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="31"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6" t="s">
+      <c r="A108" s="28"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="7"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="31"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6" t="s">
+      <c r="A109" s="28"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="7"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="31"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6" t="s">
+      <c r="A110" s="28"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="7"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="31"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6" t="s">
+      <c r="A111" s="28"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="7"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="31"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6" t="s">
+      <c r="A112" s="28"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="7"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="7"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="8"/>
-      <c r="B114" s="9" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="10"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I115" t="s">
@@ -5857,27 +5522,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A50:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A112"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B84:B106"/>
-    <mergeCell ref="B107:B112"/>
     <mergeCell ref="C90:C106"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C84:C89"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B84:B106"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A50:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A112"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6591,262 +6256,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="21.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="4097" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="4097" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="4098" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="4098" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="4099" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>295275</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="4099" r:id="rId7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="4100" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>885825</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="4100" r:id="rId9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="4101" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>419100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="4101" r:id="rId11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="4102" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>514350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="4102" r:id="rId13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -6854,7 +6284,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -6862,28 +6292,28 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6891,7 +6321,7 @@
         <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6977,4 +6407,68 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>